--- a/data/pca/factorExposure/factorExposure_2011-06-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-06-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.02177137229274659</v>
+        <v>-0.01854326453423668</v>
       </c>
       <c r="C2">
-        <v>-0.01594370856780203</v>
+        <v>0.001466388239939568</v>
       </c>
       <c r="D2">
-        <v>-0.0569964808330319</v>
+        <v>-0.006982144977107258</v>
       </c>
       <c r="E2">
-        <v>0.03454535697042332</v>
+        <v>-0.04060009573130604</v>
       </c>
       <c r="F2">
-        <v>0.04198272562138463</v>
+        <v>0.0008924978456423018</v>
       </c>
       <c r="G2">
-        <v>0.02308832797122698</v>
+        <v>0.02942710037788063</v>
       </c>
       <c r="H2">
-        <v>0.02741333276567303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.01065985040630985</v>
+      </c>
+      <c r="I2">
+        <v>0.03631832596522707</v>
+      </c>
+      <c r="J2">
+        <v>0.03207710252339887</v>
+      </c>
+      <c r="K2">
+        <v>0.04191847944925733</v>
+      </c>
+      <c r="L2">
+        <v>0.0495038394373057</v>
+      </c>
+      <c r="M2">
+        <v>-0.00328187242142359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.07156293856831772</v>
+        <v>-0.1047766418648855</v>
       </c>
       <c r="C4">
-        <v>0.05364608353742126</v>
+        <v>-0.08009286740885548</v>
       </c>
       <c r="D4">
-        <v>-0.03502068428253907</v>
+        <v>-0.01791624119351353</v>
       </c>
       <c r="E4">
-        <v>0.04339410533669483</v>
+        <v>-0.04947331918625174</v>
       </c>
       <c r="F4">
-        <v>-0.01057356653438368</v>
+        <v>-0.1209839167839371</v>
       </c>
       <c r="G4">
-        <v>0.01748497419285364</v>
+        <v>-0.01640391151694236</v>
       </c>
       <c r="H4">
-        <v>-0.008323322628110376</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.06010127169529027</v>
+      </c>
+      <c r="I4">
+        <v>0.007073511584314678</v>
+      </c>
+      <c r="J4">
+        <v>-0.08182388525265312</v>
+      </c>
+      <c r="K4">
+        <v>0.003003338070336394</v>
+      </c>
+      <c r="L4">
+        <v>-0.06906146583859124</v>
+      </c>
+      <c r="M4">
+        <v>-0.0248388423813426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1332062375412395</v>
+        <v>-0.131156816780134</v>
       </c>
       <c r="C6">
-        <v>0.03913888835287729</v>
+        <v>-0.05741031796943474</v>
       </c>
       <c r="D6">
-        <v>-0.06492841105528868</v>
+        <v>-0.006878264309946933</v>
       </c>
       <c r="E6">
-        <v>0.09137379446913237</v>
+        <v>-0.01666886437660981</v>
       </c>
       <c r="F6">
-        <v>-0.06495775092472331</v>
+        <v>-0.04735212701285717</v>
       </c>
       <c r="G6">
-        <v>-0.09831697837308544</v>
+        <v>-0.1730180363428791</v>
       </c>
       <c r="H6">
-        <v>-0.2966010387620692</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.1153965807646236</v>
+      </c>
+      <c r="I6">
+        <v>0.1103144336511211</v>
+      </c>
+      <c r="J6">
+        <v>-0.3667924007511869</v>
+      </c>
+      <c r="K6">
+        <v>-0.1687752816165297</v>
+      </c>
+      <c r="L6">
+        <v>0.1219136223550017</v>
+      </c>
+      <c r="M6">
+        <v>-0.04337152037448341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.06668518723001092</v>
+        <v>-0.07349409374922485</v>
       </c>
       <c r="C7">
-        <v>0.05754469113095636</v>
+        <v>-0.07255640573656054</v>
       </c>
       <c r="D7">
-        <v>-0.05398190505871092</v>
+        <v>-0.008682721581569798</v>
       </c>
       <c r="E7">
-        <v>0.03586782514857575</v>
+        <v>-0.04831314527420517</v>
       </c>
       <c r="F7">
-        <v>-0.03649061773621409</v>
+        <v>-0.01459711301152036</v>
       </c>
       <c r="G7">
-        <v>-0.001075608863573366</v>
+        <v>0.004296059981670916</v>
       </c>
       <c r="H7">
-        <v>0.01104482932173338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.0514149921398154</v>
+      </c>
+      <c r="I7">
+        <v>-0.04886014555829674</v>
+      </c>
+      <c r="J7">
+        <v>-0.001255135769356121</v>
+      </c>
+      <c r="K7">
+        <v>0.01039595470646962</v>
+      </c>
+      <c r="L7">
+        <v>-0.08342094935641763</v>
+      </c>
+      <c r="M7">
+        <v>0.02202471038486371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.02717782327526073</v>
+        <v>-0.03881805820575698</v>
       </c>
       <c r="C8">
-        <v>0.007218683639045636</v>
+        <v>-0.01312612746952128</v>
       </c>
       <c r="D8">
-        <v>-0.04270829404815623</v>
+        <v>-0.01543019999143842</v>
       </c>
       <c r="E8">
-        <v>0.06124297953750434</v>
+        <v>-0.05002641332815111</v>
       </c>
       <c r="F8">
-        <v>0.05415629467700495</v>
+        <v>-0.102137358651734</v>
       </c>
       <c r="G8">
-        <v>-0.03577879988423328</v>
+        <v>-0.007240622556936186</v>
       </c>
       <c r="H8">
-        <v>0.0263597435175444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.0319238144533281</v>
+      </c>
+      <c r="I8">
+        <v>0.02115648564489558</v>
+      </c>
+      <c r="J8">
+        <v>-0.06321341108399869</v>
+      </c>
+      <c r="K8">
+        <v>0.02515097476429592</v>
+      </c>
+      <c r="L8">
+        <v>-0.04982762615672055</v>
+      </c>
+      <c r="M8">
+        <v>-0.03432055219448586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.07245255252619436</v>
+        <v>-0.08443377609597724</v>
       </c>
       <c r="C9">
-        <v>0.06715071834996422</v>
+        <v>-0.07131473585399219</v>
       </c>
       <c r="D9">
-        <v>-0.04163691321542928</v>
+        <v>0.002132801763436172</v>
       </c>
       <c r="E9">
-        <v>0.0414216247266336</v>
+        <v>-0.03434874788412877</v>
       </c>
       <c r="F9">
-        <v>0.006777011878145408</v>
+        <v>-0.1159823201465132</v>
       </c>
       <c r="G9">
-        <v>0.02157334706865599</v>
+        <v>-0.00881434403291519</v>
       </c>
       <c r="H9">
-        <v>-0.0006034266552920077</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.05268432722237734</v>
+      </c>
+      <c r="I9">
+        <v>-0.01733386148162642</v>
+      </c>
+      <c r="J9">
+        <v>-0.05505682484793055</v>
+      </c>
+      <c r="K9">
+        <v>0.00643964221100089</v>
+      </c>
+      <c r="L9">
+        <v>-0.03505207138544449</v>
+      </c>
+      <c r="M9">
+        <v>0.005726247570879878</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.06320309639508942</v>
+        <v>-0.1125842010650571</v>
       </c>
       <c r="C10">
-        <v>-0.1382306034486109</v>
+        <v>0.1679281552885906</v>
       </c>
       <c r="D10">
-        <v>-0.04892140036908498</v>
+        <v>-0.005207187103739061</v>
       </c>
       <c r="E10">
-        <v>0.03055912546988444</v>
+        <v>-0.05173905722589091</v>
       </c>
       <c r="F10">
-        <v>-0.03498302512981995</v>
+        <v>0.01262999800753712</v>
       </c>
       <c r="G10">
-        <v>-0.02913137789206093</v>
+        <v>-0.007004533663941587</v>
       </c>
       <c r="H10">
-        <v>-0.04071646991417705</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.004177744799138319</v>
+      </c>
+      <c r="I10">
+        <v>-0.05299399986959279</v>
+      </c>
+      <c r="J10">
+        <v>0.03578331830048804</v>
+      </c>
+      <c r="K10">
+        <v>-0.0135028288592963</v>
+      </c>
+      <c r="L10">
+        <v>-0.00519569505946051</v>
+      </c>
+      <c r="M10">
+        <v>0.09821357558289788</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.06508060401838377</v>
+        <v>-0.06856657375061474</v>
       </c>
       <c r="C11">
-        <v>0.08682659601711025</v>
+        <v>-0.07248779517249811</v>
       </c>
       <c r="D11">
-        <v>-0.03981914816996721</v>
+        <v>0.03213845309172682</v>
       </c>
       <c r="E11">
-        <v>0.01345842374963959</v>
+        <v>-0.01841512801533465</v>
       </c>
       <c r="F11">
-        <v>0.05695562346839712</v>
+        <v>-0.105791142777366</v>
       </c>
       <c r="G11">
-        <v>0.0139873934320136</v>
+        <v>0.01730529223119375</v>
       </c>
       <c r="H11">
-        <v>0.05573781503973835</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.03469346606141527</v>
+      </c>
+      <c r="I11">
+        <v>-0.07283401701764124</v>
+      </c>
+      <c r="J11">
+        <v>0.03612823102535072</v>
+      </c>
+      <c r="K11">
+        <v>0.06814233042546511</v>
+      </c>
+      <c r="L11">
+        <v>0.01206786172860116</v>
+      </c>
+      <c r="M11">
+        <v>0.09075299507578242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.05986813963113392</v>
+        <v>-0.07215764784965339</v>
       </c>
       <c r="C12">
-        <v>0.05115230759014875</v>
+        <v>-0.06373528795608023</v>
       </c>
       <c r="D12">
-        <v>-0.02135903245944979</v>
+        <v>0.03023362107742751</v>
       </c>
       <c r="E12">
-        <v>0.02651377804158171</v>
+        <v>-0.008021065681017656</v>
       </c>
       <c r="F12">
-        <v>0.003816974673895911</v>
+        <v>-0.1150168608726732</v>
       </c>
       <c r="G12">
-        <v>0.002167916823531793</v>
+        <v>0.02211105615266134</v>
       </c>
       <c r="H12">
-        <v>0.04891474611047946</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.02307569277861422</v>
+      </c>
+      <c r="I12">
+        <v>-0.07004106584121984</v>
+      </c>
+      <c r="J12">
+        <v>0.006087132664397131</v>
+      </c>
+      <c r="K12">
+        <v>0.08698373723410018</v>
+      </c>
+      <c r="L12">
+        <v>-0.01124880919510402</v>
+      </c>
+      <c r="M12">
+        <v>0.1154180393029007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.04956245688779645</v>
+        <v>-0.04591942210573811</v>
       </c>
       <c r="C13">
-        <v>0.01148370707635886</v>
+        <v>-0.02945368342115815</v>
       </c>
       <c r="D13">
-        <v>-0.000134831586932608</v>
+        <v>-0.02285097158861258</v>
       </c>
       <c r="E13">
-        <v>0.0176641437562538</v>
+        <v>-0.01255416959052177</v>
       </c>
       <c r="F13">
-        <v>0.02044289374305753</v>
+        <v>-0.039750549587614</v>
       </c>
       <c r="G13">
-        <v>0.04869959438713664</v>
+        <v>0.01846057336676562</v>
       </c>
       <c r="H13">
-        <v>0.006881888574542006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.03876218135674988</v>
+      </c>
+      <c r="I13">
+        <v>0.003699821029090309</v>
+      </c>
+      <c r="J13">
+        <v>-0.02022781383042418</v>
+      </c>
+      <c r="K13">
+        <v>0.003920444562050067</v>
+      </c>
+      <c r="L13">
+        <v>-0.06576351580670133</v>
+      </c>
+      <c r="M13">
+        <v>-0.02771306248678589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.04090402102586869</v>
+        <v>-0.04198469289515429</v>
       </c>
       <c r="C14">
-        <v>0.02247958174841817</v>
+        <v>-0.03023075780814643</v>
       </c>
       <c r="D14">
-        <v>-0.01776808619280009</v>
+        <v>0.01127734825551646</v>
       </c>
       <c r="E14">
-        <v>-0.01045956352840173</v>
+        <v>-0.01665823874554579</v>
       </c>
       <c r="F14">
-        <v>-0.01039723747929724</v>
+        <v>-0.05775906680083233</v>
       </c>
       <c r="G14">
-        <v>-0.008732406024267295</v>
+        <v>0.01906657224150299</v>
       </c>
       <c r="H14">
-        <v>-0.08898808373185339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.07084307692685247</v>
+      </c>
+      <c r="I14">
+        <v>0.008702076035558488</v>
+      </c>
+      <c r="J14">
+        <v>-0.04438775029659099</v>
+      </c>
+      <c r="K14">
+        <v>-0.04271628081625434</v>
+      </c>
+      <c r="L14">
+        <v>-0.04368439348300632</v>
+      </c>
+      <c r="M14">
+        <v>-0.03438097144039901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.03866865223520601</v>
+        <v>-0.03026459249928754</v>
       </c>
       <c r="C15">
-        <v>-0.008975196434838751</v>
+        <v>-0.008280021702871437</v>
       </c>
       <c r="D15">
-        <v>0.005033781589927256</v>
+        <v>-0.05849549780784061</v>
       </c>
       <c r="E15">
-        <v>0.01966113808351479</v>
+        <v>-0.005235332934606518</v>
       </c>
       <c r="F15">
-        <v>-0.01500967001903884</v>
+        <v>-0.009753077033564508</v>
       </c>
       <c r="G15">
-        <v>0.01410275737820942</v>
+        <v>-0.03839057590109902</v>
       </c>
       <c r="H15">
-        <v>-0.01494240679571392</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.03896915126055417</v>
+      </c>
+      <c r="I15">
+        <v>0.03300920931577569</v>
+      </c>
+      <c r="J15">
+        <v>-0.02224003281929848</v>
+      </c>
+      <c r="K15">
+        <v>-0.04066767110046772</v>
+      </c>
+      <c r="L15">
+        <v>-0.0490730197665352</v>
+      </c>
+      <c r="M15">
+        <v>0.01149528056831222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.05165122083592251</v>
+        <v>-0.07298651573372583</v>
       </c>
       <c r="C16">
-        <v>0.08249005378676472</v>
+        <v>-0.07946161711255673</v>
       </c>
       <c r="D16">
-        <v>-0.03191199434094431</v>
+        <v>0.02091033177349604</v>
       </c>
       <c r="E16">
-        <v>0.03136375297885811</v>
+        <v>-0.01772921461967479</v>
       </c>
       <c r="F16">
-        <v>0.02993902552323465</v>
+        <v>-0.1043748534981962</v>
       </c>
       <c r="G16">
-        <v>0.02879881508885795</v>
+        <v>0.02937132133734056</v>
       </c>
       <c r="H16">
-        <v>0.05164352574588733</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.03698833854958651</v>
+      </c>
+      <c r="I16">
+        <v>-0.07372140777446475</v>
+      </c>
+      <c r="J16">
+        <v>0.01144540672406544</v>
+      </c>
+      <c r="K16">
+        <v>0.07737943873877685</v>
+      </c>
+      <c r="L16">
+        <v>-0.01227986296317235</v>
+      </c>
+      <c r="M16">
+        <v>0.07901481797514395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.04113944624917748</v>
+        <v>-0.04478939971842728</v>
       </c>
       <c r="C20">
-        <v>0.04550403724306003</v>
+        <v>-0.03188109100304072</v>
       </c>
       <c r="D20">
-        <v>-0.01140620352940014</v>
+        <v>-0.02474720144062675</v>
       </c>
       <c r="E20">
-        <v>0.01292185071507209</v>
+        <v>-0.01790407050110621</v>
       </c>
       <c r="F20">
-        <v>0.005545384335088078</v>
+        <v>-0.05662710143037812</v>
       </c>
       <c r="G20">
-        <v>0.03418418331901658</v>
+        <v>0.02088217837791317</v>
       </c>
       <c r="H20">
-        <v>0.008708349457579487</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.03567606897735538</v>
+      </c>
+      <c r="I20">
+        <v>-0.03349275095799062</v>
+      </c>
+      <c r="J20">
+        <v>-0.05610394154673148</v>
+      </c>
+      <c r="K20">
+        <v>0.003644273077160588</v>
+      </c>
+      <c r="L20">
+        <v>-0.0558396903803642</v>
+      </c>
+      <c r="M20">
+        <v>0.02922337760138227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.01335698611859684</v>
+        <v>-0.02895881996591577</v>
       </c>
       <c r="C21">
-        <v>0.0215045767854843</v>
+        <v>-0.02341505152436877</v>
       </c>
       <c r="D21">
-        <v>-0.006572202109506009</v>
+        <v>-0.00312674649405697</v>
       </c>
       <c r="E21">
-        <v>0.06482704744219128</v>
+        <v>-0.02584526120032921</v>
       </c>
       <c r="F21">
-        <v>-0.04862268764475167</v>
+        <v>-0.06741616883143128</v>
       </c>
       <c r="G21">
-        <v>-0.07819246358155388</v>
+        <v>-0.08597450479166237</v>
       </c>
       <c r="H21">
-        <v>-0.03450096092240928</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.01090608897439912</v>
+      </c>
+      <c r="I21">
+        <v>-0.07673090924133405</v>
+      </c>
+      <c r="J21">
+        <v>-0.0229924560199074</v>
+      </c>
+      <c r="K21">
+        <v>-0.04268133290526378</v>
+      </c>
+      <c r="L21">
+        <v>-0.09832003601558986</v>
+      </c>
+      <c r="M21">
+        <v>-0.01174268858614771</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.01147966318168374</v>
+        <v>-0.03979628080009987</v>
       </c>
       <c r="C22">
-        <v>0.04978953240633398</v>
+        <v>-0.01897002997417046</v>
       </c>
       <c r="D22">
-        <v>0.1321552248945599</v>
+        <v>-0.6573200050048685</v>
       </c>
       <c r="E22">
-        <v>0.4597663296433461</v>
+        <v>-0.05172037279930345</v>
       </c>
       <c r="F22">
-        <v>-0.2366572661481035</v>
+        <v>0.06884130755988287</v>
       </c>
       <c r="G22">
-        <v>0.2300663918120402</v>
+        <v>0.07857054754963567</v>
       </c>
       <c r="H22">
-        <v>0.1688090881311995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.07003067753530062</v>
+      </c>
+      <c r="I22">
+        <v>-0.1168456067119505</v>
+      </c>
+      <c r="J22">
+        <v>0.02239806361481106</v>
+      </c>
+      <c r="K22">
+        <v>-0.02619257163609326</v>
+      </c>
+      <c r="L22">
+        <v>0.02142426798807649</v>
+      </c>
+      <c r="M22">
+        <v>-0.0260807282631009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.01246316152511399</v>
+        <v>-0.04049315489248458</v>
       </c>
       <c r="C23">
-        <v>0.04880350633570134</v>
+        <v>-0.01936389587827065</v>
       </c>
       <c r="D23">
-        <v>0.1323142493904866</v>
+        <v>-0.6588803580610032</v>
       </c>
       <c r="E23">
-        <v>0.4609366608131194</v>
+        <v>-0.05221152891133918</v>
       </c>
       <c r="F23">
-        <v>-0.234026258699857</v>
+        <v>0.06429794151872496</v>
       </c>
       <c r="G23">
-        <v>0.2264009706790352</v>
+        <v>0.07847109357227453</v>
       </c>
       <c r="H23">
-        <v>0.1669297201831162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.07217388113985836</v>
+      </c>
+      <c r="I23">
+        <v>-0.1133592003009595</v>
+      </c>
+      <c r="J23">
+        <v>0.02072464786732084</v>
+      </c>
+      <c r="K23">
+        <v>-0.02764765513503423</v>
+      </c>
+      <c r="L23">
+        <v>0.0250189283683436</v>
+      </c>
+      <c r="M23">
+        <v>-0.02733371032743392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.07147819913987938</v>
+        <v>-0.07696294529265098</v>
       </c>
       <c r="C24">
-        <v>0.07706744691992683</v>
+        <v>-0.07541463446748391</v>
       </c>
       <c r="D24">
-        <v>-0.04174323148417409</v>
+        <v>0.017559048723524</v>
       </c>
       <c r="E24">
-        <v>0.04429673659313203</v>
+        <v>-0.02002042565912369</v>
       </c>
       <c r="F24">
-        <v>0.03502858783867553</v>
+        <v>-0.1080616956856326</v>
       </c>
       <c r="G24">
-        <v>0.007844440298337616</v>
+        <v>0.01663462694336713</v>
       </c>
       <c r="H24">
-        <v>0.03828162041967301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.02084851617450587</v>
+      </c>
+      <c r="I24">
+        <v>-0.06736534512391551</v>
+      </c>
+      <c r="J24">
+        <v>0.01502468977814027</v>
+      </c>
+      <c r="K24">
+        <v>0.06747361122428251</v>
+      </c>
+      <c r="L24">
+        <v>0.01676737358769935</v>
+      </c>
+      <c r="M24">
+        <v>0.08842538500007724</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.06593629248004042</v>
+        <v>-0.07491782709118769</v>
       </c>
       <c r="C25">
-        <v>0.04027625867814225</v>
+        <v>-0.05087200154265346</v>
       </c>
       <c r="D25">
-        <v>-0.03457668413828326</v>
+        <v>0.03331307269386194</v>
       </c>
       <c r="E25">
-        <v>0.05081908517497709</v>
+        <v>-0.01706715446711586</v>
       </c>
       <c r="F25">
-        <v>0.04328446383799886</v>
+        <v>-0.1152450484191378</v>
       </c>
       <c r="G25">
-        <v>0.02107135034216285</v>
+        <v>0.03309510824131424</v>
       </c>
       <c r="H25">
-        <v>0.00832265722664185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.0387690709188581</v>
+      </c>
+      <c r="I25">
+        <v>-0.06848365647384186</v>
+      </c>
+      <c r="J25">
+        <v>0.00892946885727593</v>
+      </c>
+      <c r="K25">
+        <v>0.07753567857123955</v>
+      </c>
+      <c r="L25">
+        <v>0.03563949712165156</v>
+      </c>
+      <c r="M25">
+        <v>0.09320113099725887</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.04011957735398468</v>
+        <v>-0.04305714560525878</v>
       </c>
       <c r="C26">
-        <v>0.03006374001917748</v>
+        <v>-0.02305974592021437</v>
       </c>
       <c r="D26">
-        <v>-0.04025014709311862</v>
+        <v>-0.01249050916191348</v>
       </c>
       <c r="E26">
-        <v>-0.0007626806924045184</v>
+        <v>-0.002086800890054578</v>
       </c>
       <c r="F26">
-        <v>-0.017401564930415</v>
+        <v>-0.03558677379326786</v>
       </c>
       <c r="G26">
-        <v>0.02994102457786896</v>
+        <v>0.006405645921849321</v>
       </c>
       <c r="H26">
-        <v>0.0007875891050045966</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.03642535314379904</v>
+      </c>
+      <c r="I26">
+        <v>-0.02575237242509912</v>
+      </c>
+      <c r="J26">
+        <v>-0.01222985449896081</v>
+      </c>
+      <c r="K26">
+        <v>-0.08411703611965364</v>
+      </c>
+      <c r="L26">
+        <v>-0.1355952178925889</v>
+      </c>
+      <c r="M26">
+        <v>-0.01616118819324676</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.1247941581333998</v>
+        <v>-0.1454453464819998</v>
       </c>
       <c r="C28">
-        <v>-0.2975883498247242</v>
+        <v>0.2869758148492842</v>
       </c>
       <c r="D28">
-        <v>-0.01687856158421436</v>
+        <v>0.01168979038083158</v>
       </c>
       <c r="E28">
-        <v>-0.01822165387997042</v>
+        <v>-0.02593743408125067</v>
       </c>
       <c r="F28">
-        <v>-0.04602371315854863</v>
+        <v>0.0004213053077195083</v>
       </c>
       <c r="G28">
-        <v>-0.02804396429882974</v>
+        <v>-0.009413488101261453</v>
       </c>
       <c r="H28">
-        <v>0.0570186577993194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.01497880902713289</v>
+      </c>
+      <c r="I28">
+        <v>-0.002572893792509224</v>
+      </c>
+      <c r="J28">
+        <v>-0.01046156142597402</v>
+      </c>
+      <c r="K28">
+        <v>0.002408733080016778</v>
+      </c>
+      <c r="L28">
+        <v>-0.04624021497881561</v>
+      </c>
+      <c r="M28">
+        <v>-0.03121755523905626</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.05216493322407476</v>
+        <v>-0.0442475926497639</v>
       </c>
       <c r="C29">
-        <v>0.01986484318652491</v>
+        <v>-0.02842503431454102</v>
       </c>
       <c r="D29">
-        <v>-0.008214942699404596</v>
+        <v>0.003380159671469961</v>
       </c>
       <c r="E29">
-        <v>0.02007346674934374</v>
+        <v>-0.01881136585888655</v>
       </c>
       <c r="F29">
-        <v>-0.005868682883265884</v>
+        <v>-0.06014260879392929</v>
       </c>
       <c r="G29">
-        <v>0.00453780446348646</v>
+        <v>0.03304292255213344</v>
       </c>
       <c r="H29">
-        <v>-0.02747759516704803</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.04924719398810391</v>
+      </c>
+      <c r="I29">
+        <v>-0.0007086624260642464</v>
+      </c>
+      <c r="J29">
+        <v>-0.03620464951041884</v>
+      </c>
+      <c r="K29">
+        <v>-0.04063631076201225</v>
+      </c>
+      <c r="L29">
+        <v>-0.03804804533707635</v>
+      </c>
+      <c r="M29">
+        <v>-0.01930633875200537</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.1243634331578234</v>
+        <v>-0.09714321353880563</v>
       </c>
       <c r="C30">
-        <v>0.05286892524123306</v>
+        <v>-0.06525543631677494</v>
       </c>
       <c r="D30">
-        <v>-0.07029344064272951</v>
+        <v>-0.001731567247671915</v>
       </c>
       <c r="E30">
-        <v>0.08001829440133186</v>
+        <v>-0.02539925580352695</v>
       </c>
       <c r="F30">
-        <v>-0.008083619619172377</v>
+        <v>-0.1764893960571613</v>
       </c>
       <c r="G30">
-        <v>-0.01567545624226697</v>
+        <v>0.05600750548506946</v>
       </c>
       <c r="H30">
-        <v>0.04338086060956912</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.02381875449659593</v>
+      </c>
+      <c r="I30">
+        <v>-0.2354238844358951</v>
+      </c>
+      <c r="J30">
+        <v>-0.193306194419264</v>
+      </c>
+      <c r="K30">
+        <v>0.02798355235095929</v>
+      </c>
+      <c r="L30">
+        <v>-0.1498037123454448</v>
+      </c>
+      <c r="M30">
+        <v>-0.2500248135422992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.04657813103838621</v>
+        <v>-0.03565772736935067</v>
       </c>
       <c r="C31">
-        <v>0.02729933011735765</v>
+        <v>-0.04634976936429248</v>
       </c>
       <c r="D31">
-        <v>0.007688101854563938</v>
+        <v>-0.005891777587607036</v>
       </c>
       <c r="E31">
-        <v>-0.01383003320353817</v>
+        <v>0.008436448112064733</v>
       </c>
       <c r="F31">
-        <v>-0.02612223139622291</v>
+        <v>-0.01767411303685234</v>
       </c>
       <c r="G31">
-        <v>0.04265057620166163</v>
+        <v>0.02526924058101265</v>
       </c>
       <c r="H31">
-        <v>-0.004632150990347648</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.04888331550084922</v>
+      </c>
+      <c r="I31">
+        <v>0.02355182192222963</v>
+      </c>
+      <c r="J31">
+        <v>-0.02037566956098715</v>
+      </c>
+      <c r="K31">
+        <v>0.009430322722943788</v>
+      </c>
+      <c r="L31">
+        <v>-0.0163938914828074</v>
+      </c>
+      <c r="M31">
+        <v>-0.001925633146618388</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.0217966795858512</v>
+        <v>-0.04115752360339399</v>
       </c>
       <c r="C32">
-        <v>-0.01588627079781899</v>
+        <v>0.004077846474051187</v>
       </c>
       <c r="D32">
-        <v>0.02369236843686106</v>
+        <v>0.009972696181156059</v>
       </c>
       <c r="E32">
-        <v>0.08808926098781533</v>
+        <v>-0.006150662792527573</v>
       </c>
       <c r="F32">
-        <v>0.04055221471381634</v>
+        <v>-0.08687311405169035</v>
       </c>
       <c r="G32">
-        <v>0.04867501722853382</v>
+        <v>-0.02367989878688323</v>
       </c>
       <c r="H32">
-        <v>0.0590179846903727</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.06917131584387387</v>
+      </c>
+      <c r="I32">
+        <v>0.0482596238982307</v>
+      </c>
+      <c r="J32">
+        <v>0.04835613652030008</v>
+      </c>
+      <c r="K32">
+        <v>0.02518032932789373</v>
+      </c>
+      <c r="L32">
+        <v>-0.04652920181817585</v>
+      </c>
+      <c r="M32">
+        <v>-0.1371485312448631</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.1008490746924231</v>
+        <v>-0.09896998690429874</v>
       </c>
       <c r="C33">
-        <v>0.04994552196268808</v>
+        <v>-0.06643586785648679</v>
       </c>
       <c r="D33">
-        <v>-0.004544010792234428</v>
+        <v>0.008774712654036586</v>
       </c>
       <c r="E33">
-        <v>0.00963399812094839</v>
+        <v>0.0146671450261876</v>
       </c>
       <c r="F33">
-        <v>0.01783191182949345</v>
+        <v>-0.06527658874287938</v>
       </c>
       <c r="G33">
-        <v>0.05195032669478719</v>
+        <v>0.02732210629372596</v>
       </c>
       <c r="H33">
-        <v>0.01757346782065155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.05410474714914052</v>
+      </c>
+      <c r="I33">
+        <v>-0.0323865898391571</v>
+      </c>
+      <c r="J33">
+        <v>-0.02502901608781025</v>
+      </c>
+      <c r="K33">
+        <v>-0.03914816196772641</v>
+      </c>
+      <c r="L33">
+        <v>-0.006415604000612284</v>
+      </c>
+      <c r="M33">
+        <v>0.009242574210329686</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.05282135221311986</v>
+        <v>-0.0640195086981363</v>
       </c>
       <c r="C34">
-        <v>0.08244107859222116</v>
+        <v>-0.06260927010878996</v>
       </c>
       <c r="D34">
-        <v>-0.02597960640140217</v>
+        <v>0.02474921733829131</v>
       </c>
       <c r="E34">
-        <v>0.04354618200895957</v>
+        <v>-0.01438189098761776</v>
       </c>
       <c r="F34">
-        <v>0.02174279099277284</v>
+        <v>-0.09302401376174636</v>
       </c>
       <c r="G34">
-        <v>0.01177859362683349</v>
+        <v>0.01828233056778459</v>
       </c>
       <c r="H34">
-        <v>0.02851108945064146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.0426010655757809</v>
+      </c>
+      <c r="I34">
+        <v>-0.05390063931940513</v>
+      </c>
+      <c r="J34">
+        <v>0.007171447408084391</v>
+      </c>
+      <c r="K34">
+        <v>0.05159993989380709</v>
+      </c>
+      <c r="L34">
+        <v>0.01118629423074454</v>
+      </c>
+      <c r="M34">
+        <v>0.1100119823130923</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.04147661345903604</v>
+        <v>-0.02610016259468838</v>
       </c>
       <c r="C35">
-        <v>0.03837085534793455</v>
+        <v>-0.02679521068882832</v>
       </c>
       <c r="D35">
-        <v>-0.008846958327271734</v>
+        <v>0.001247737384917942</v>
       </c>
       <c r="E35">
-        <v>0.0131940953482678</v>
+        <v>0.001964112409558036</v>
       </c>
       <c r="F35">
-        <v>0.002963704555293683</v>
+        <v>-0.02630858262595731</v>
       </c>
       <c r="G35">
-        <v>0.01593395200860837</v>
+        <v>0.01701151284559147</v>
       </c>
       <c r="H35">
-        <v>0.0108176285468315</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.03334998284876642</v>
+      </c>
+      <c r="I35">
+        <v>-0.05053797335586276</v>
+      </c>
+      <c r="J35">
+        <v>-0.01198724046027583</v>
+      </c>
+      <c r="K35">
+        <v>0.0175286037968377</v>
+      </c>
+      <c r="L35">
+        <v>-0.06074883043566507</v>
+      </c>
+      <c r="M35">
+        <v>-0.008980032536723859</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.02996676200662993</v>
+        <v>-0.02970154214663128</v>
       </c>
       <c r="C36">
-        <v>0.01960036820985864</v>
+        <v>-0.02139786217049383</v>
       </c>
       <c r="D36">
-        <v>-0.02741975118851092</v>
+        <v>-0.01394946652414021</v>
       </c>
       <c r="E36">
-        <v>0.02144752693423214</v>
+        <v>-0.01397380461513325</v>
       </c>
       <c r="F36">
-        <v>0.003087441371726144</v>
+        <v>-0.06212826846433218</v>
       </c>
       <c r="G36">
-        <v>0.0335274361434752</v>
+        <v>0.0100086099671778</v>
       </c>
       <c r="H36">
-        <v>-0.02613869059482181</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.03612644514209018</v>
+      </c>
+      <c r="I36">
+        <v>-0.02455851924503132</v>
+      </c>
+      <c r="J36">
+        <v>-0.04384921816374795</v>
+      </c>
+      <c r="K36">
+        <v>-0.02582245164669008</v>
+      </c>
+      <c r="L36">
+        <v>-0.03579663037816939</v>
+      </c>
+      <c r="M36">
+        <v>0.0264361609428422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.04101423936549288</v>
+        <v>-0.03021619703650309</v>
       </c>
       <c r="C38">
-        <v>0.03413854269656477</v>
+        <v>-0.04665074261481297</v>
       </c>
       <c r="D38">
-        <v>0.02183250629029644</v>
+        <v>-0.02489431932952946</v>
       </c>
       <c r="E38">
-        <v>0.03555608214105847</v>
+        <v>-0.003511623443502347</v>
       </c>
       <c r="F38">
-        <v>0.005294074444184543</v>
+        <v>0.04380965890919079</v>
       </c>
       <c r="G38">
-        <v>0.01518939842780388</v>
+        <v>0.05519123392977054</v>
       </c>
       <c r="H38">
-        <v>0.04757094544890708</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.02791179149682799</v>
+      </c>
+      <c r="I38">
+        <v>-0.02416715860878259</v>
+      </c>
+      <c r="J38">
+        <v>0.05130144853552508</v>
+      </c>
+      <c r="K38">
+        <v>-0.09692309672246373</v>
+      </c>
+      <c r="L38">
+        <v>-0.06817366059355606</v>
+      </c>
+      <c r="M38">
+        <v>-0.1322953324549587</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.09317032815760302</v>
+        <v>-0.09987944723945336</v>
       </c>
       <c r="C39">
-        <v>0.09926122825612098</v>
+        <v>-0.09236351548799561</v>
       </c>
       <c r="D39">
-        <v>-0.020440518360715</v>
+        <v>0.08371292612299207</v>
       </c>
       <c r="E39">
-        <v>0.03631397097044991</v>
+        <v>0.0134641513140668</v>
       </c>
       <c r="F39">
-        <v>0.04762014545483571</v>
+        <v>-0.1458298391555861</v>
       </c>
       <c r="G39">
-        <v>-0.01808723796956432</v>
+        <v>0.09583984026313749</v>
       </c>
       <c r="H39">
-        <v>0.1193807156975253</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.01191303767124879</v>
+      </c>
+      <c r="I39">
+        <v>-0.1600563300579201</v>
+      </c>
+      <c r="J39">
+        <v>0.01692649092119891</v>
+      </c>
+      <c r="K39">
+        <v>0.1899734753340598</v>
+      </c>
+      <c r="L39">
+        <v>-0.0248341030280738</v>
+      </c>
+      <c r="M39">
+        <v>-0.05668768096802859</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.05589028319913843</v>
+        <v>-0.03490983191696955</v>
       </c>
       <c r="C40">
-        <v>0.04813271848888786</v>
+        <v>-0.0595199555236837</v>
       </c>
       <c r="D40">
-        <v>0.04282938501365495</v>
+        <v>-0.04747727028503484</v>
       </c>
       <c r="E40">
-        <v>0.1429417851858265</v>
+        <v>0.001724943634071005</v>
       </c>
       <c r="F40">
-        <v>0.02518779699913011</v>
+        <v>-0.1240596931138868</v>
       </c>
       <c r="G40">
-        <v>0.05693940313285276</v>
+        <v>-0.05990787725872603</v>
       </c>
       <c r="H40">
-        <v>0.1181026959060836</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.01513360236180646</v>
+      </c>
+      <c r="I40">
+        <v>-0.06606461500926727</v>
+      </c>
+      <c r="J40">
+        <v>0.07389654876302554</v>
+      </c>
+      <c r="K40">
+        <v>-0.07195834609245112</v>
+      </c>
+      <c r="L40">
+        <v>-0.08972493444541488</v>
+      </c>
+      <c r="M40">
+        <v>-0.00929388163670246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.04387721042123747</v>
+        <v>-0.03662134831132983</v>
       </c>
       <c r="C41">
-        <v>0.05218810692658392</v>
+        <v>-0.03637758258261702</v>
       </c>
       <c r="D41">
-        <v>-0.01461893195245677</v>
+        <v>0.01752801446495154</v>
       </c>
       <c r="E41">
-        <v>-0.001613579293635638</v>
+        <v>-0.0004417653889676019</v>
       </c>
       <c r="F41">
-        <v>0.01570402595528571</v>
+        <v>-0.01431894661921589</v>
       </c>
       <c r="G41">
-        <v>0.02127581516047073</v>
+        <v>0.02702728989111397</v>
       </c>
       <c r="H41">
-        <v>0.02649622513495396</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.01220228682937542</v>
+      </c>
+      <c r="I41">
+        <v>-0.004642714289211684</v>
+      </c>
+      <c r="J41">
+        <v>0.01304721881832265</v>
+      </c>
+      <c r="K41">
+        <v>-0.01290188977317174</v>
+      </c>
+      <c r="L41">
+        <v>-0.04505083338258504</v>
+      </c>
+      <c r="M41">
+        <v>0.03183416800038971</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.05491318281213557</v>
+        <v>-0.0514845231624548</v>
       </c>
       <c r="C43">
-        <v>0.04286483560979425</v>
+        <v>-0.04828159136802171</v>
       </c>
       <c r="D43">
-        <v>-0.02979016082802673</v>
+        <v>-0.01266869612817215</v>
       </c>
       <c r="E43">
-        <v>0.02087196631397199</v>
+        <v>-0.01317239052632365</v>
       </c>
       <c r="F43">
-        <v>-0.01746417355059671</v>
+        <v>-0.01215989655359136</v>
       </c>
       <c r="G43">
-        <v>0.02440388386007912</v>
+        <v>0.06052473150768208</v>
       </c>
       <c r="H43">
-        <v>0.01575898615075623</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.004947508716930907</v>
+      </c>
+      <c r="I43">
+        <v>-0.006584952660422876</v>
+      </c>
+      <c r="J43">
+        <v>0.0002770901342614112</v>
+      </c>
+      <c r="K43">
+        <v>0.008746527438352008</v>
+      </c>
+      <c r="L43">
+        <v>-0.03193474310338325</v>
+      </c>
+      <c r="M43">
+        <v>0.0122583634298668</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.05176278282101397</v>
+        <v>-0.07978496852210194</v>
       </c>
       <c r="C44">
-        <v>0.005279922092796626</v>
+        <v>-0.05548408660459046</v>
       </c>
       <c r="D44">
-        <v>-0.07474623950067606</v>
+        <v>-0.0706551281175775</v>
       </c>
       <c r="E44">
-        <v>0.1362555670793824</v>
+        <v>-0.09942805697914622</v>
       </c>
       <c r="F44">
-        <v>0.04485131493580223</v>
+        <v>-0.1501500160157094</v>
       </c>
       <c r="G44">
-        <v>0.01354800749992256</v>
+        <v>0.009182033857936657</v>
       </c>
       <c r="H44">
-        <v>0.01810253636639038</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.07359216962113463</v>
+      </c>
+      <c r="I44">
+        <v>-0.08641613443338918</v>
+      </c>
+      <c r="J44">
+        <v>0.03172469731143588</v>
+      </c>
+      <c r="K44">
+        <v>-0.000948477933773381</v>
+      </c>
+      <c r="L44">
+        <v>-0.02892531434657492</v>
+      </c>
+      <c r="M44">
+        <v>-0.06565116490541102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.01989645985998496</v>
+        <v>-0.03335549891604696</v>
       </c>
       <c r="C46">
-        <v>0.04360733829319022</v>
+        <v>-0.03993442899237418</v>
       </c>
       <c r="D46">
-        <v>-0.01399948301188015</v>
+        <v>-0.04200524703841957</v>
       </c>
       <c r="E46">
-        <v>0.04410803295683373</v>
+        <v>-0.03928213639885024</v>
       </c>
       <c r="F46">
-        <v>0.001395669788757604</v>
+        <v>-0.0358302989652596</v>
       </c>
       <c r="G46">
-        <v>0.002675242331485231</v>
+        <v>-0.01368826142020337</v>
       </c>
       <c r="H46">
-        <v>0.007498049911967695</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.06924738316564863</v>
+      </c>
+      <c r="I46">
+        <v>0.003550571328822731</v>
+      </c>
+      <c r="J46">
+        <v>-0.02999429703855816</v>
+      </c>
+      <c r="K46">
+        <v>-0.06194974753983409</v>
+      </c>
+      <c r="L46">
+        <v>-0.06492753862090905</v>
+      </c>
+      <c r="M46">
+        <v>0.002175957425357002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.02633518351843292</v>
+        <v>-0.04646359848078056</v>
       </c>
       <c r="C47">
-        <v>0.0004592630408689309</v>
+        <v>-0.02755864690538137</v>
       </c>
       <c r="D47">
-        <v>0.01524440262805811</v>
+        <v>-0.01938589233610842</v>
       </c>
       <c r="E47">
-        <v>0.06768127538193779</v>
+        <v>-0.0105269736867243</v>
       </c>
       <c r="F47">
-        <v>-0.006325818285818546</v>
+        <v>-0.03829198328240828</v>
       </c>
       <c r="G47">
-        <v>0.03161994054332008</v>
+        <v>0.02373133079530038</v>
       </c>
       <c r="H47">
-        <v>-0.04228670676301681</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.02523407682650223</v>
+      </c>
+      <c r="I47">
+        <v>-0.03078337558974242</v>
+      </c>
+      <c r="J47">
+        <v>-0.03522335178130846</v>
+      </c>
+      <c r="K47">
+        <v>-0.03642063378655467</v>
+      </c>
+      <c r="L47">
+        <v>-0.01662407722065294</v>
+      </c>
+      <c r="M47">
+        <v>0.02439528602382218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.03029759895596515</v>
+        <v>-0.04171578423532859</v>
       </c>
       <c r="C48">
-        <v>0.02791163466352403</v>
+        <v>-0.02247323861762737</v>
       </c>
       <c r="D48">
-        <v>-0.004135561101004318</v>
+        <v>-0.01096561933811873</v>
       </c>
       <c r="E48">
-        <v>0.04260097002203606</v>
+        <v>-0.003702151958945425</v>
       </c>
       <c r="F48">
-        <v>-0.01823283176969133</v>
+        <v>-0.07177854903283154</v>
       </c>
       <c r="G48">
-        <v>0.04580214991707846</v>
+        <v>-0.0284091622219129</v>
       </c>
       <c r="H48">
-        <v>0.001345237548193608</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.04560505027728935</v>
+      </c>
+      <c r="I48">
+        <v>-0.02574782742222924</v>
+      </c>
+      <c r="J48">
+        <v>-0.04199171552072365</v>
+      </c>
+      <c r="K48">
+        <v>0.009826750278566816</v>
+      </c>
+      <c r="L48">
+        <v>-0.04453573800084371</v>
+      </c>
+      <c r="M48">
+        <v>0.02225254715885952</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.1918314703143279</v>
+        <v>-0.2241565063741068</v>
       </c>
       <c r="C49">
-        <v>0.1243318550870431</v>
+        <v>-0.0792913120495773</v>
       </c>
       <c r="D49">
-        <v>-0.08636811912040605</v>
+        <v>0.05401341756538405</v>
       </c>
       <c r="E49">
-        <v>-0.07401997315947033</v>
+        <v>-0.02818463299691878</v>
       </c>
       <c r="F49">
-        <v>-0.1084074814645941</v>
+        <v>0.2374988550789587</v>
       </c>
       <c r="G49">
-        <v>-0.1593520471919522</v>
+        <v>-0.1429683014153305</v>
       </c>
       <c r="H49">
-        <v>0.007103194969642121</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.03824022867263626</v>
+      </c>
+      <c r="I49">
+        <v>-0.1549134169629485</v>
+      </c>
+      <c r="J49">
+        <v>0.1007767555664285</v>
+      </c>
+      <c r="K49">
+        <v>0.0750414997666696</v>
+      </c>
+      <c r="L49">
+        <v>0.1430319866799952</v>
+      </c>
+      <c r="M49">
+        <v>0.1181986077563082</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.0545636225742297</v>
+        <v>-0.04299173880617127</v>
       </c>
       <c r="C50">
-        <v>0.02938414378342596</v>
+        <v>-0.04394757872088139</v>
       </c>
       <c r="D50">
-        <v>-0.00153984407117508</v>
+        <v>-0.002704315383714611</v>
       </c>
       <c r="E50">
-        <v>0.0146258183102498</v>
+        <v>0.01178583718344901</v>
       </c>
       <c r="F50">
-        <v>-0.007297013969068722</v>
+        <v>-0.04267081890457868</v>
       </c>
       <c r="G50">
-        <v>0.06642560893319178</v>
+        <v>0.03621514971817008</v>
       </c>
       <c r="H50">
-        <v>-0.03768977816934021</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.03903267997267485</v>
+      </c>
+      <c r="I50">
+        <v>0.01351283021131623</v>
+      </c>
+      <c r="J50">
+        <v>-0.03995315069219681</v>
+      </c>
+      <c r="K50">
+        <v>-0.03680802697016552</v>
+      </c>
+      <c r="L50">
+        <v>-0.01974714590575857</v>
+      </c>
+      <c r="M50">
+        <v>-0.02657863921482593</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.0285440270269489</v>
+        <v>-0.02977885453205959</v>
       </c>
       <c r="C51">
-        <v>0.01330703294886354</v>
+        <v>-0.005186608583545122</v>
       </c>
       <c r="D51">
-        <v>0.000335996762685625</v>
+        <v>0.0009853413250498868</v>
       </c>
       <c r="E51">
-        <v>0.01307633085315095</v>
+        <v>-0.01961724188347537</v>
       </c>
       <c r="F51">
-        <v>0.01114470256097003</v>
+        <v>0.01692268036581384</v>
       </c>
       <c r="G51">
-        <v>-0.01574756504173758</v>
+        <v>0.01172318149122758</v>
       </c>
       <c r="H51">
-        <v>0.01455379941282169</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.01510114612666766</v>
+      </c>
+      <c r="I51">
+        <v>-0.02059897764175788</v>
+      </c>
+      <c r="J51">
+        <v>0.01859938375087215</v>
+      </c>
+      <c r="K51">
+        <v>0.06227408919112472</v>
+      </c>
+      <c r="L51">
+        <v>0.05950117708682482</v>
+      </c>
+      <c r="M51">
+        <v>-0.009154447081249214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.01625317253099374</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.0059089377901299</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01506363100192285</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.002701363332767988</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.0003102847300390681</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.004002671855857057</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.01075284954287998</v>
+      </c>
+      <c r="I52">
+        <v>-0.001480436904650996</v>
+      </c>
+      <c r="J52">
+        <v>-0.003604242837328438</v>
+      </c>
+      <c r="K52">
+        <v>0.0150812281856864</v>
+      </c>
+      <c r="L52">
+        <v>-0.006379689333887771</v>
+      </c>
+      <c r="M52">
+        <v>-0.02889195908992149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.1669832003341446</v>
+        <v>-0.1524355782374983</v>
       </c>
       <c r="C53">
-        <v>0.01952596980371823</v>
+        <v>-0.04512675378621173</v>
       </c>
       <c r="D53">
-        <v>-0.01897220446008727</v>
+        <v>0.0104722969644229</v>
       </c>
       <c r="E53">
-        <v>-0.07432112914378287</v>
+        <v>0.01237555861268686</v>
       </c>
       <c r="F53">
-        <v>0.1638696520341768</v>
+        <v>0.07092487776545138</v>
       </c>
       <c r="G53">
-        <v>0.2190751610977756</v>
+        <v>0.2118040272775353</v>
       </c>
       <c r="H53">
-        <v>-0.02811714092326539</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.06404352760254883</v>
+      </c>
+      <c r="I53">
+        <v>0.1166854526225851</v>
+      </c>
+      <c r="J53">
+        <v>0.01988020105040271</v>
+      </c>
+      <c r="K53">
+        <v>-0.09341801662719475</v>
+      </c>
+      <c r="L53">
+        <v>0.068315349000584</v>
+      </c>
+      <c r="M53">
+        <v>-0.0975437750899755</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.04378428282657205</v>
+        <v>-0.05735660159027698</v>
       </c>
       <c r="C54">
-        <v>0.03000296255284162</v>
+        <v>-0.0353103880461527</v>
       </c>
       <c r="D54">
-        <v>-0.02809562830379434</v>
+        <v>-0.01564714854887703</v>
       </c>
       <c r="E54">
-        <v>0.03727005031876301</v>
+        <v>-0.02807078146821531</v>
       </c>
       <c r="F54">
-        <v>0.007664755269765637</v>
+        <v>-0.1159649354184305</v>
       </c>
       <c r="G54">
-        <v>0.01216821718340916</v>
+        <v>-0.02483414732953225</v>
       </c>
       <c r="H54">
-        <v>-0.003574087522974205</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.0511300687472076</v>
+      </c>
+      <c r="I54">
+        <v>0.04562248329946235</v>
+      </c>
+      <c r="J54">
+        <v>-0.06324594645210069</v>
+      </c>
+      <c r="K54">
+        <v>-0.04288992816991955</v>
+      </c>
+      <c r="L54">
+        <v>-0.1059250199047043</v>
+      </c>
+      <c r="M54">
+        <v>0.01320521825842695</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.08912506390841589</v>
+        <v>-0.08596472785748127</v>
       </c>
       <c r="C55">
-        <v>0.004994652080284616</v>
+        <v>-0.03827376322199166</v>
       </c>
       <c r="D55">
-        <v>-0.00943747220203171</v>
+        <v>0.02636687161787775</v>
       </c>
       <c r="E55">
-        <v>-0.01088785473921555</v>
+        <v>-0.0008175572013421627</v>
       </c>
       <c r="F55">
-        <v>0.135229488730972</v>
+        <v>-0.005276961516975568</v>
       </c>
       <c r="G55">
-        <v>0.189768986959816</v>
+        <v>0.1404505538815815</v>
       </c>
       <c r="H55">
-        <v>-0.04560878171531983</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.0590613092234349</v>
+      </c>
+      <c r="I55">
+        <v>0.07754639249085654</v>
+      </c>
+      <c r="J55">
+        <v>0.00924977451842519</v>
+      </c>
+      <c r="K55">
+        <v>-0.0647447937867514</v>
+      </c>
+      <c r="L55">
+        <v>0.05182282412803371</v>
+      </c>
+      <c r="M55">
+        <v>-0.02411236410444642</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.1659705161616869</v>
+        <v>-0.1491894015031296</v>
       </c>
       <c r="C56">
-        <v>0.020634661417286</v>
+        <v>-0.06862986305899511</v>
       </c>
       <c r="D56">
-        <v>-0.04016851780964169</v>
+        <v>0.02943701464784926</v>
       </c>
       <c r="E56">
-        <v>-0.07063125393908649</v>
+        <v>-0.007263647236910868</v>
       </c>
       <c r="F56">
-        <v>0.1309147227049908</v>
+        <v>0.03972840183143299</v>
       </c>
       <c r="G56">
-        <v>0.2132854137554509</v>
+        <v>0.2097629797456978</v>
       </c>
       <c r="H56">
-        <v>-0.03272095149422431</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.042574335402344</v>
+      </c>
+      <c r="I56">
+        <v>0.1205194181714368</v>
+      </c>
+      <c r="J56">
+        <v>0.04570712882787535</v>
+      </c>
+      <c r="K56">
+        <v>-0.1001285707926316</v>
+      </c>
+      <c r="L56">
+        <v>0.05201063424358438</v>
+      </c>
+      <c r="M56">
+        <v>-0.05286857435962983</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,998 +3040,1583 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.03957608792703769</v>
+        <v>-0.03365268515913302</v>
       </c>
       <c r="C58">
-        <v>0.02941537021509311</v>
+        <v>-0.03338778721963537</v>
       </c>
       <c r="D58">
-        <v>-0.01025474106654066</v>
+        <v>-0.08248566909078374</v>
       </c>
       <c r="E58">
-        <v>0.3170546299144994</v>
+        <v>-0.02013801371448819</v>
       </c>
       <c r="F58">
-        <v>-0.2258218616743279</v>
+        <v>-0.04084605432927854</v>
       </c>
       <c r="G58">
-        <v>-0.03055242961150737</v>
+        <v>-0.06053374885031847</v>
       </c>
       <c r="H58">
-        <v>-0.1799848384924207</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.02524406122899111</v>
+      </c>
+      <c r="I58">
+        <v>-0.1710427807780794</v>
+      </c>
+      <c r="J58">
+        <v>-0.2355837094819684</v>
+      </c>
+      <c r="K58">
+        <v>0.3117145872360086</v>
+      </c>
+      <c r="L58">
+        <v>0.01987968663977124</v>
+      </c>
+      <c r="M58">
+        <v>0.09836420001055561</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.2508703961868354</v>
+        <v>-0.225315815615811</v>
       </c>
       <c r="C59">
-        <v>-0.3977157768461553</v>
+        <v>0.299851754502194</v>
       </c>
       <c r="D59">
-        <v>-0.007643202455157126</v>
+        <v>0.04717846858030993</v>
       </c>
       <c r="E59">
-        <v>0.01170917211167661</v>
+        <v>-0.006597187271452643</v>
       </c>
       <c r="F59">
-        <v>0.05748791355344606</v>
+        <v>-0.02940128084232799</v>
       </c>
       <c r="G59">
-        <v>0.0301096621273684</v>
+        <v>0.06577790522208733</v>
       </c>
       <c r="H59">
-        <v>0.07648647396499708</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.0007347520480697126</v>
+      </c>
+      <c r="I59">
+        <v>0.09501348958546219</v>
+      </c>
+      <c r="J59">
+        <v>0.08850816284512228</v>
+      </c>
+      <c r="K59">
+        <v>0.05390281378374717</v>
+      </c>
+      <c r="L59">
+        <v>0.0258238387309519</v>
+      </c>
+      <c r="M59">
+        <v>-0.02125134258807979</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.254337819911949</v>
+        <v>-0.2461018775762887</v>
       </c>
       <c r="C60">
-        <v>0.07779920203751621</v>
+        <v>-0.1181868513100294</v>
       </c>
       <c r="D60">
-        <v>-0.1006516812368286</v>
+        <v>0.06136650339134598</v>
       </c>
       <c r="E60">
-        <v>0.01317710487893845</v>
+        <v>-0.045881904160111</v>
       </c>
       <c r="F60">
-        <v>-0.03495054275126389</v>
+        <v>0.09851637367087654</v>
       </c>
       <c r="G60">
-        <v>-0.04002766766557708</v>
+        <v>-0.03169859193984536</v>
       </c>
       <c r="H60">
-        <v>-0.05225890730661314</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.09537596399955461</v>
+      </c>
+      <c r="I60">
+        <v>0.01104756714083496</v>
+      </c>
+      <c r="J60">
+        <v>-0.04476475055556669</v>
+      </c>
+      <c r="K60">
+        <v>-0.02449295066503321</v>
+      </c>
+      <c r="L60">
+        <v>0.2089597112022162</v>
+      </c>
+      <c r="M60">
+        <v>-0.02365732061299596</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.0840640353810605</v>
+        <v>-0.09242811872375585</v>
       </c>
       <c r="C61">
-        <v>0.06408091789495074</v>
+        <v>-0.06593620098922162</v>
       </c>
       <c r="D61">
-        <v>-0.02053905409860691</v>
+        <v>0.04598702341017289</v>
       </c>
       <c r="E61">
-        <v>0.008500309072170297</v>
+        <v>-0.01538129093070521</v>
       </c>
       <c r="F61">
-        <v>0.01340050360792212</v>
+        <v>-0.1158610757858474</v>
       </c>
       <c r="G61">
-        <v>0.01528088368100459</v>
+        <v>0.08395364116036633</v>
       </c>
       <c r="H61">
-        <v>0.06201110472985808</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.02335829768581887</v>
+      </c>
+      <c r="I61">
+        <v>-0.06812441732788876</v>
+      </c>
+      <c r="J61">
+        <v>0.01630000590384664</v>
+      </c>
+      <c r="K61">
+        <v>0.07157363825133402</v>
+      </c>
+      <c r="L61">
+        <v>-0.04763727593299403</v>
+      </c>
+      <c r="M61">
+        <v>-0.01415729770882505</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.1631531550483737</v>
+        <v>-0.1395746524171498</v>
       </c>
       <c r="C62">
-        <v>0.06117091322534651</v>
+        <v>-0.07282343138065947</v>
       </c>
       <c r="D62">
-        <v>-0.003903349427880924</v>
+        <v>0.02714831814306586</v>
       </c>
       <c r="E62">
-        <v>-0.1120307235064873</v>
+        <v>0.03952939942538106</v>
       </c>
       <c r="F62">
-        <v>0.1910428348794372</v>
+        <v>0.03751883997763576</v>
       </c>
       <c r="G62">
-        <v>0.1569590006748905</v>
+        <v>0.1509060957996028</v>
       </c>
       <c r="H62">
-        <v>0.01323093382066343</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.07165091986828465</v>
+      </c>
+      <c r="I62">
+        <v>0.1169443644016264</v>
+      </c>
+      <c r="J62">
+        <v>0.05257335015801656</v>
+      </c>
+      <c r="K62">
+        <v>-0.1654557333902845</v>
+      </c>
+      <c r="L62">
+        <v>0.03380742799061386</v>
+      </c>
+      <c r="M62">
+        <v>0.004577859759038612</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.04178887847549963</v>
+        <v>-0.04562898066189525</v>
       </c>
       <c r="C63">
-        <v>0.04240577362797805</v>
+        <v>-0.02817789057154794</v>
       </c>
       <c r="D63">
-        <v>-0.008329841252605063</v>
+        <v>0.008695238756428471</v>
       </c>
       <c r="E63">
-        <v>0.003697538912854986</v>
+        <v>0.01323163364988197</v>
       </c>
       <c r="F63">
-        <v>0.01518744996086297</v>
+        <v>-0.06333452388262012</v>
       </c>
       <c r="G63">
-        <v>0.01771538478879729</v>
+        <v>0.004819783649127657</v>
       </c>
       <c r="H63">
-        <v>-0.04957304012692901</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.02393019582455496</v>
+      </c>
+      <c r="I63">
+        <v>-0.02141361620642675</v>
+      </c>
+      <c r="J63">
+        <v>-0.04506556928935056</v>
+      </c>
+      <c r="K63">
+        <v>-0.009579601712912007</v>
+      </c>
+      <c r="L63">
+        <v>-0.01789890102122182</v>
+      </c>
+      <c r="M63">
+        <v>0.01362855049987513</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.1020217778640073</v>
+        <v>-0.09941012164802333</v>
       </c>
       <c r="C64">
-        <v>0.02584154301818808</v>
+        <v>-0.04791214363395551</v>
       </c>
       <c r="D64">
-        <v>-0.0336682471483519</v>
+        <v>-0.004134123980325745</v>
       </c>
       <c r="E64">
-        <v>0.03761406975210595</v>
+        <v>-0.03814853730242199</v>
       </c>
       <c r="F64">
-        <v>-0.00899186245072957</v>
+        <v>-0.06681476285864778</v>
       </c>
       <c r="G64">
-        <v>-0.01588331565183921</v>
+        <v>0.01754884417657867</v>
       </c>
       <c r="H64">
-        <v>0.04040814228357584</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.005267542841331274</v>
+      </c>
+      <c r="I64">
+        <v>-0.06950549007060822</v>
+      </c>
+      <c r="J64">
+        <v>-0.0340285441023576</v>
+      </c>
+      <c r="K64">
+        <v>0.01899655257282704</v>
+      </c>
+      <c r="L64">
+        <v>-0.03669312532458357</v>
+      </c>
+      <c r="M64">
+        <v>-0.008611253509124195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.1293107509862036</v>
+        <v>-0.1263786073817859</v>
       </c>
       <c r="C65">
-        <v>0.04995099814688084</v>
+        <v>-0.0497356173995322</v>
       </c>
       <c r="D65">
-        <v>-0.04845739689236146</v>
+        <v>0.003489159939425513</v>
       </c>
       <c r="E65">
-        <v>0.1276656916670659</v>
+        <v>0.01181564580640166</v>
       </c>
       <c r="F65">
-        <v>-0.1064268950541946</v>
+        <v>-0.04972981270780373</v>
       </c>
       <c r="G65">
-        <v>-0.1055174935854513</v>
+        <v>-0.2064217003646619</v>
       </c>
       <c r="H65">
-        <v>-0.6752722278053374</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.1504385892868325</v>
+      </c>
+      <c r="I65">
+        <v>0.1003301884755835</v>
+      </c>
+      <c r="J65">
+        <v>-0.5588467466157051</v>
+      </c>
+      <c r="K65">
+        <v>-0.2738754279321964</v>
+      </c>
+      <c r="L65">
+        <v>0.2408953275411317</v>
+      </c>
+      <c r="M65">
+        <v>-0.13519431046871</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.1517242611972634</v>
+        <v>-0.1253892480247775</v>
       </c>
       <c r="C66">
-        <v>0.1394377744868913</v>
+        <v>-0.1327510155257491</v>
       </c>
       <c r="D66">
-        <v>-0.04197817385652603</v>
+        <v>0.1009854107156748</v>
       </c>
       <c r="E66">
-        <v>0.001444297160572702</v>
+        <v>0.02947241801821397</v>
       </c>
       <c r="F66">
-        <v>0.1037974655400811</v>
+        <v>-0.1536832084339504</v>
       </c>
       <c r="G66">
-        <v>-0.04216719733865003</v>
+        <v>0.1028779535071617</v>
       </c>
       <c r="H66">
-        <v>0.2478702895644478</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.0004169357719067959</v>
+      </c>
+      <c r="I66">
+        <v>-0.1811064594217505</v>
+      </c>
+      <c r="J66">
+        <v>0.09623583332284132</v>
+      </c>
+      <c r="K66">
+        <v>0.1808874707079375</v>
+      </c>
+      <c r="L66">
+        <v>-0.01943734206571391</v>
+      </c>
+      <c r="M66">
+        <v>-0.09196711375034958</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.07734293149949059</v>
+        <v>-0.07851097391123123</v>
       </c>
       <c r="C67">
-        <v>0.05174479765375385</v>
+        <v>-0.0592933216402791</v>
       </c>
       <c r="D67">
-        <v>-0.007800159592629529</v>
+        <v>-0.01958198682423934</v>
       </c>
       <c r="E67">
-        <v>0.006318632003860259</v>
+        <v>-0.01774316260025703</v>
       </c>
       <c r="F67">
-        <v>0.002731609631936368</v>
+        <v>0.04187060106316683</v>
       </c>
       <c r="G67">
-        <v>-0.004303651451443098</v>
+        <v>0.09571483994032892</v>
       </c>
       <c r="H67">
-        <v>0.06332497345364774</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.06896808080654827</v>
+      </c>
+      <c r="I67">
+        <v>-0.01339888299989721</v>
+      </c>
+      <c r="J67">
+        <v>0.09411609782700038</v>
+      </c>
+      <c r="K67">
+        <v>-0.05892596118624421</v>
+      </c>
+      <c r="L67">
+        <v>-0.0369064285815455</v>
+      </c>
+      <c r="M67">
+        <v>-0.09268753662756878</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.1042318138343719</v>
+        <v>-0.1214935050915675</v>
       </c>
       <c r="C68">
-        <v>-0.2738701420842169</v>
+        <v>0.274683944012491</v>
       </c>
       <c r="D68">
-        <v>0.02202791509542041</v>
+        <v>0.007935554773741959</v>
       </c>
       <c r="E68">
-        <v>0.002211594408417226</v>
+        <v>-0.0009351243583343142</v>
       </c>
       <c r="F68">
-        <v>-0.00938902275869964</v>
+        <v>-0.028537822013029</v>
       </c>
       <c r="G68">
-        <v>0.04664446407303306</v>
+        <v>0.0278797939457345</v>
       </c>
       <c r="H68">
-        <v>-0.01939185830117862</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.01242463683629021</v>
+      </c>
+      <c r="I68">
+        <v>-0.005235482247891182</v>
+      </c>
+      <c r="J68">
+        <v>-0.07055704399807448</v>
+      </c>
+      <c r="K68">
+        <v>-0.01507843021702121</v>
+      </c>
+      <c r="L68">
+        <v>-0.002993835233403938</v>
+      </c>
+      <c r="M68">
+        <v>-0.04424219585698983</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.0384109450760496</v>
+        <v>-0.04386947119206216</v>
       </c>
       <c r="C69">
-        <v>0.03095385310103347</v>
+        <v>-0.02309477819336979</v>
       </c>
       <c r="D69">
-        <v>-0.00797200626095448</v>
+        <v>-0.007602669570668704</v>
       </c>
       <c r="E69">
-        <v>0.01798027499932625</v>
+        <v>-0.0006130070465364075</v>
       </c>
       <c r="F69">
-        <v>0.03659818877380298</v>
+        <v>-0.01793162857161972</v>
       </c>
       <c r="G69">
-        <v>0.01123260361269774</v>
+        <v>0.03600947139737957</v>
       </c>
       <c r="H69">
-        <v>-0.01099803765014051</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.00153029726083688</v>
+      </c>
+      <c r="I69">
+        <v>-0.01343040867802172</v>
+      </c>
+      <c r="J69">
+        <v>0.005820013721539766</v>
+      </c>
+      <c r="K69">
+        <v>-0.02497949722505323</v>
+      </c>
+      <c r="L69">
+        <v>-0.001417561492618473</v>
+      </c>
+      <c r="M69">
+        <v>0.06217484283566332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.04851182408882461</v>
+        <v>-0.05166754548160337</v>
       </c>
       <c r="C70">
-        <v>0.0005783244131559521</v>
+        <v>-0.03489706184697839</v>
       </c>
       <c r="D70">
-        <v>-0.04037843116191737</v>
+        <v>0.02312043110194025</v>
       </c>
       <c r="E70">
-        <v>-0.02465600121955584</v>
+        <v>-0.01986852219369926</v>
       </c>
       <c r="F70">
-        <v>-0.09416508417301593</v>
+        <v>-0.001763140457092098</v>
       </c>
       <c r="G70">
-        <v>-0.05783469912568056</v>
+        <v>-0.06744746279502667</v>
       </c>
       <c r="H70">
-        <v>0.02690460068155973</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.01912306213171881</v>
+      </c>
+      <c r="I70">
+        <v>0.03507379407652134</v>
+      </c>
+      <c r="J70">
+        <v>-0.04277377437686172</v>
+      </c>
+      <c r="K70">
+        <v>-0.1465105890447137</v>
+      </c>
+      <c r="L70">
+        <v>-0.2709250615993165</v>
+      </c>
+      <c r="M70">
+        <v>0.1396439015760462</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.1079551932211621</v>
+        <v>-0.1350799274939576</v>
       </c>
       <c r="C71">
-        <v>-0.2827866804684094</v>
+        <v>0.2821339747735325</v>
       </c>
       <c r="D71">
-        <v>-0.0116363711793159</v>
+        <v>0.01296268223405697</v>
       </c>
       <c r="E71">
-        <v>-0.008641704222805692</v>
+        <v>-0.02030355920424511</v>
       </c>
       <c r="F71">
-        <v>-0.0292752209774347</v>
+        <v>-0.02900596423740298</v>
       </c>
       <c r="G71">
-        <v>0.02850465805076523</v>
+        <v>0.03084458471254991</v>
       </c>
       <c r="H71">
-        <v>-0.0007650399754412461</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.006282354281377572</v>
+      </c>
+      <c r="I71">
+        <v>-0.03285613061471832</v>
+      </c>
+      <c r="J71">
+        <v>-0.0354584367569265</v>
+      </c>
+      <c r="K71">
+        <v>-0.003587134304881904</v>
+      </c>
+      <c r="L71">
+        <v>0.002856033775605947</v>
+      </c>
+      <c r="M71">
+        <v>-0.02813315952451304</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.1867565736835444</v>
+        <v>-0.1428940031230438</v>
       </c>
       <c r="C72">
-        <v>0.05495046969410539</v>
+        <v>-0.03157169198904702</v>
       </c>
       <c r="D72">
-        <v>0.2355014926212093</v>
+        <v>-0.006935113695670667</v>
       </c>
       <c r="E72">
-        <v>-0.01646559794697536</v>
+        <v>0.1876138014029931</v>
       </c>
       <c r="F72">
-        <v>0.1014643316314526</v>
+        <v>-0.05347947050398804</v>
       </c>
       <c r="G72">
-        <v>-0.06570258543801707</v>
+        <v>0.01403053696130374</v>
       </c>
       <c r="H72">
-        <v>-0.1020947670717177</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.05979928400630968</v>
+      </c>
+      <c r="I72">
+        <v>0.06247287124051328</v>
+      </c>
+      <c r="J72">
+        <v>-0.02916082451658767</v>
+      </c>
+      <c r="K72">
+        <v>-0.08846818816220041</v>
+      </c>
+      <c r="L72">
+        <v>0.1089955395489355</v>
+      </c>
+      <c r="M72">
+        <v>-0.01661913103470936</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2714833099642496</v>
+        <v>-0.2435396713653954</v>
       </c>
       <c r="C73">
-        <v>0.1874529858294685</v>
+        <v>-0.1520301415815816</v>
       </c>
       <c r="D73">
-        <v>-0.1359929492365493</v>
+        <v>0.1440007932762461</v>
       </c>
       <c r="E73">
-        <v>-0.05240844883580203</v>
+        <v>-0.08617287938604223</v>
       </c>
       <c r="F73">
-        <v>-0.1608769804688164</v>
+        <v>0.427640443589581</v>
       </c>
       <c r="G73">
-        <v>-0.1064145410614637</v>
+        <v>-0.09758227797051308</v>
       </c>
       <c r="H73">
-        <v>-0.1348528511471423</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.2427800421157406</v>
+      </c>
+      <c r="I73">
+        <v>-0.3267681055934419</v>
+      </c>
+      <c r="J73">
+        <v>0.09499173331541977</v>
+      </c>
+      <c r="K73">
+        <v>0.166446723098942</v>
+      </c>
+      <c r="L73">
+        <v>0.2763123863081752</v>
+      </c>
+      <c r="M73">
+        <v>-0.1365935002980465</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.0934431708801458</v>
+        <v>-0.09238515875215729</v>
       </c>
       <c r="C74">
-        <v>0.04112081081557553</v>
+        <v>-0.07154511579441786</v>
       </c>
       <c r="D74">
-        <v>-0.005963568027382343</v>
+        <v>0.008239202760896257</v>
       </c>
       <c r="E74">
-        <v>-0.02456029805964231</v>
+        <v>0.01612326949033288</v>
       </c>
       <c r="F74">
-        <v>0.05743091538952561</v>
+        <v>0.04104523076130483</v>
       </c>
       <c r="G74">
-        <v>0.1407813829492699</v>
+        <v>0.1437675600123286</v>
       </c>
       <c r="H74">
-        <v>-0.05822197784486615</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.01875871976715977</v>
+      </c>
+      <c r="I74">
+        <v>-0.0001151574076806888</v>
+      </c>
+      <c r="J74">
+        <v>0.01271149930842795</v>
+      </c>
+      <c r="K74">
+        <v>-0.05296747131691017</v>
+      </c>
+      <c r="L74">
+        <v>0.0353553640868039</v>
+      </c>
+      <c r="M74">
+        <v>-0.0316228134773076</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.09509883573813541</v>
+        <v>-0.09463300619902965</v>
       </c>
       <c r="C75">
-        <v>0.02339348204209131</v>
+        <v>-0.04982556496270747</v>
       </c>
       <c r="D75">
-        <v>-0.01174412336427882</v>
+        <v>0.004170558777484267</v>
       </c>
       <c r="E75">
-        <v>-0.0281109582533082</v>
+        <v>0.01230178522412718</v>
       </c>
       <c r="F75">
-        <v>0.06903268423682948</v>
+        <v>0.02033335972316606</v>
       </c>
       <c r="G75">
-        <v>0.0966724136166195</v>
+        <v>0.09470639952935626</v>
       </c>
       <c r="H75">
-        <v>-0.009736094181909837</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.02986346063222992</v>
+      </c>
+      <c r="I75">
+        <v>0.08899039176754511</v>
+      </c>
+      <c r="J75">
+        <v>0.01923756398281547</v>
+      </c>
+      <c r="K75">
+        <v>-0.03853192411882427</v>
+      </c>
+      <c r="L75">
+        <v>0.0225461596001753</v>
+      </c>
+      <c r="M75">
+        <v>0.06760174604359634</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.129392077226017</v>
+        <v>-0.09134188895183858</v>
       </c>
       <c r="C76">
-        <v>0.03610769557120486</v>
+        <v>-0.06324477920865532</v>
       </c>
       <c r="D76">
-        <v>-0.01015855285905654</v>
+        <v>-0.0004037370419801579</v>
       </c>
       <c r="E76">
-        <v>-0.01076352584143244</v>
+        <v>-0.005153073981624161</v>
       </c>
       <c r="F76">
-        <v>0.1337079526003085</v>
+        <v>0.05009474063587614</v>
       </c>
       <c r="G76">
-        <v>0.2116357557733925</v>
+        <v>0.1923138804337128</v>
       </c>
       <c r="H76">
-        <v>-0.05301810853591504</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.07226759421018659</v>
+      </c>
+      <c r="I76">
+        <v>0.1151491970228168</v>
+      </c>
+      <c r="J76">
+        <v>0.0246522213356121</v>
+      </c>
+      <c r="K76">
+        <v>-0.06178452827551895</v>
+      </c>
+      <c r="L76">
+        <v>0.04246291291956198</v>
+      </c>
+      <c r="M76">
+        <v>-0.09347439552936189</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.08889828827795583</v>
+        <v>-0.07562819357783655</v>
       </c>
       <c r="C77">
-        <v>0.003382164601869942</v>
+        <v>-0.02102722123150807</v>
       </c>
       <c r="D77">
-        <v>-0.02602810795333324</v>
+        <v>0.01401005745921125</v>
       </c>
       <c r="E77">
-        <v>0.3536191571108814</v>
+        <v>-0.05873301831710829</v>
       </c>
       <c r="F77">
-        <v>0.5415739061211571</v>
+        <v>-0.4185244323073862</v>
       </c>
       <c r="G77">
-        <v>-0.5554241338064408</v>
+        <v>-0.1207064769715485</v>
       </c>
       <c r="H77">
-        <v>0.1173321248780837</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.6754532541081661</v>
+      </c>
+      <c r="I77">
+        <v>0.1634614980613917</v>
+      </c>
+      <c r="J77">
+        <v>0.3672438336541272</v>
+      </c>
+      <c r="K77">
+        <v>-0.1129812464444037</v>
+      </c>
+      <c r="L77">
+        <v>0.01931125675742336</v>
+      </c>
+      <c r="M77">
+        <v>-0.03475561310741834</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.1366031673949337</v>
+        <v>-0.1646493753534564</v>
       </c>
       <c r="C78">
-        <v>0.07009063950794102</v>
+        <v>-0.1223833531683944</v>
       </c>
       <c r="D78">
-        <v>-0.02896831936900104</v>
+        <v>-0.1728925247718361</v>
       </c>
       <c r="E78">
-        <v>0.1683369855162704</v>
+        <v>-0.1087245102893729</v>
       </c>
       <c r="F78">
-        <v>-0.05947197985416134</v>
+        <v>-0.1286202361450512</v>
       </c>
       <c r="G78">
-        <v>0.0002157059684737416</v>
+        <v>-0.2964977861122506</v>
       </c>
       <c r="H78">
-        <v>0.1025227558731772</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.2335520121289518</v>
+      </c>
+      <c r="I78">
+        <v>0.5607214572117762</v>
+      </c>
+      <c r="J78">
+        <v>0.07130478464178137</v>
+      </c>
+      <c r="K78">
+        <v>0.5036917501372055</v>
+      </c>
+      <c r="L78">
+        <v>0.1979110261636085</v>
+      </c>
+      <c r="M78">
+        <v>-0.07329899839332155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1396445721957055</v>
+        <v>-0.1334946765474715</v>
       </c>
       <c r="C79">
-        <v>0.05478197959824736</v>
+        <v>-0.0720895625642228</v>
       </c>
       <c r="D79">
-        <v>-0.0239192558589691</v>
+        <v>0.000209931974568736</v>
       </c>
       <c r="E79">
-        <v>-0.04068761442940303</v>
+        <v>-0.0002529242827450239</v>
       </c>
       <c r="F79">
-        <v>0.1075245091149537</v>
+        <v>0.004471065065123395</v>
       </c>
       <c r="G79">
-        <v>0.131857669857008</v>
+        <v>0.1496022730010801</v>
       </c>
       <c r="H79">
-        <v>-0.008166252409718428</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.04061801466725876</v>
+      </c>
+      <c r="I79">
+        <v>0.07167023659625098</v>
+      </c>
+      <c r="J79">
+        <v>0.02337448870046134</v>
+      </c>
+      <c r="K79">
+        <v>-0.1097300068646745</v>
+      </c>
+      <c r="L79">
+        <v>0.04240319066753864</v>
+      </c>
+      <c r="M79">
+        <v>0.007256391324153422</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.02462010384610773</v>
+        <v>-0.05580631794667183</v>
       </c>
       <c r="C80">
-        <v>0.0003094942447876252</v>
+        <v>-0.02609893546209919</v>
       </c>
       <c r="D80">
-        <v>0.0004181340342905604</v>
+        <v>0.06804019779499584</v>
       </c>
       <c r="E80">
-        <v>-0.03332540815108494</v>
+        <v>-0.008091888024257398</v>
       </c>
       <c r="F80">
-        <v>0.004401391444696002</v>
+        <v>-0.01589489160500301</v>
       </c>
       <c r="G80">
-        <v>-0.01338880698309047</v>
+        <v>-0.02693968391432432</v>
       </c>
       <c r="H80">
-        <v>-0.0725669450702201</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.08331983061573675</v>
+      </c>
+      <c r="I80">
+        <v>-0.05835430868314653</v>
+      </c>
+      <c r="J80">
+        <v>-0.1295270546056878</v>
+      </c>
+      <c r="K80">
+        <v>0.03355372616263801</v>
+      </c>
+      <c r="L80">
+        <v>-0.07403609362959204</v>
+      </c>
+      <c r="M80">
+        <v>-0.02138144630954682</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.1133855640248336</v>
+        <v>-0.1231412288494289</v>
       </c>
       <c r="C81">
-        <v>0.05629196109687173</v>
+        <v>-0.05525868452692421</v>
       </c>
       <c r="D81">
-        <v>-0.03127305885297125</v>
+        <v>-0.0001284224091318443</v>
       </c>
       <c r="E81">
-        <v>-0.03468235515335481</v>
+        <v>-0.003451634721620216</v>
       </c>
       <c r="F81">
-        <v>0.06168578842103595</v>
+        <v>-0.01112182652965413</v>
       </c>
       <c r="G81">
-        <v>0.09153641010306308</v>
+        <v>0.1319469131713098</v>
       </c>
       <c r="H81">
-        <v>-0.01152349535453677</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.06396632855679613</v>
+      </c>
+      <c r="I81">
+        <v>0.04191388402102931</v>
+      </c>
+      <c r="J81">
+        <v>0.03398733415826809</v>
+      </c>
+      <c r="K81">
+        <v>-0.05315988112123067</v>
+      </c>
+      <c r="L81">
+        <v>0.02263265768667848</v>
+      </c>
+      <c r="M81">
+        <v>0.1016034334955497</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.1060209513778084</v>
+        <v>-0.1173922178620516</v>
       </c>
       <c r="C82">
-        <v>0.03150286444279427</v>
+        <v>-0.05046658572998941</v>
       </c>
       <c r="D82">
-        <v>-0.05115824480418038</v>
+        <v>0.0240946858255754</v>
       </c>
       <c r="E82">
-        <v>-0.08056363889105926</v>
+        <v>0.007109446371868076</v>
       </c>
       <c r="F82">
-        <v>0.1644082329326438</v>
+        <v>0.04078091718472424</v>
       </c>
       <c r="G82">
-        <v>0.2073496766682653</v>
+        <v>0.2204609482239704</v>
       </c>
       <c r="H82">
-        <v>0.008802167324991263</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.07896252351643698</v>
+      </c>
+      <c r="I82">
+        <v>0.06125527204352924</v>
+      </c>
+      <c r="J82">
+        <v>0.07446352534698829</v>
+      </c>
+      <c r="K82">
+        <v>-0.08899404330132377</v>
+      </c>
+      <c r="L82">
+        <v>-0.0523747861006652</v>
+      </c>
+      <c r="M82">
+        <v>0.02450743654843773</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.05549433853643931</v>
+        <v>-0.07607914663901952</v>
       </c>
       <c r="C83">
-        <v>0.04474001378127156</v>
+        <v>-0.06861477821140186</v>
       </c>
       <c r="D83">
-        <v>-0.03498882039265361</v>
+        <v>0.01820309583831642</v>
       </c>
       <c r="E83">
-        <v>-0.02124481675326897</v>
+        <v>-0.008013545843343193</v>
       </c>
       <c r="F83">
-        <v>-0.03649796195659238</v>
+        <v>-0.007751555357931138</v>
       </c>
       <c r="G83">
-        <v>-0.06084122283692776</v>
+        <v>0.04093076020504285</v>
       </c>
       <c r="H83">
-        <v>0.07872102132894628</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.01862997346290029</v>
+      </c>
+      <c r="I83">
+        <v>-0.06693809503490211</v>
+      </c>
+      <c r="J83">
+        <v>-0.04137304166571548</v>
+      </c>
+      <c r="K83">
+        <v>0.039550881519001</v>
+      </c>
+      <c r="L83">
+        <v>-0.1594515407063737</v>
+      </c>
+      <c r="M83">
+        <v>-0.075934345505333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.04555358510594695</v>
+        <v>-0.04886887631842891</v>
       </c>
       <c r="C84">
-        <v>0.05192510154204803</v>
+        <v>0.02262915114422388</v>
       </c>
       <c r="D84">
-        <v>0.05812711051458101</v>
+        <v>0.005004503187434557</v>
       </c>
       <c r="E84">
-        <v>-0.03319282994005317</v>
+        <v>0.02076062147206964</v>
       </c>
       <c r="F84">
-        <v>-0.07710487376820518</v>
+        <v>-0.0002136766219804074</v>
       </c>
       <c r="G84">
-        <v>0.1003481720371924</v>
+        <v>-0.2173009058490704</v>
       </c>
       <c r="H84">
-        <v>0.01412053232716955</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.1760441234727419</v>
+      </c>
+      <c r="I84">
+        <v>-0.1301887410502507</v>
+      </c>
+      <c r="J84">
+        <v>0.1037431520273352</v>
+      </c>
+      <c r="K84">
+        <v>0.00754142560995026</v>
+      </c>
+      <c r="L84">
+        <v>-0.1406363928936117</v>
+      </c>
+      <c r="M84">
+        <v>-0.6342712617153422</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.0826295903007868</v>
+        <v>-0.1071825603108921</v>
       </c>
       <c r="C85">
-        <v>0.04823234271118834</v>
+        <v>-0.05000207183890318</v>
       </c>
       <c r="D85">
-        <v>-0.04853417889020008</v>
+        <v>0.009116859665625449</v>
       </c>
       <c r="E85">
-        <v>-0.01855441050707357</v>
+        <v>-0.027139224677193</v>
       </c>
       <c r="F85">
-        <v>0.130685588454329</v>
+        <v>0.003777384645300798</v>
       </c>
       <c r="G85">
-        <v>0.1464029680628802</v>
+        <v>0.1610506328462669</v>
       </c>
       <c r="H85">
-        <v>-0.05091849681873665</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.0537214537838296</v>
+      </c>
+      <c r="I85">
+        <v>0.06911226730103041</v>
+      </c>
+      <c r="J85">
+        <v>0.02711031700114466</v>
+      </c>
+      <c r="K85">
+        <v>-0.1049929654294412</v>
+      </c>
+      <c r="L85">
+        <v>0.069471352601399</v>
+      </c>
+      <c r="M85">
+        <v>0.03485128537883547</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.03990715255610341</v>
+        <v>-0.07401318719665993</v>
       </c>
       <c r="C86">
-        <v>0.03960375289572983</v>
+        <v>-0.01679176175585276</v>
       </c>
       <c r="D86">
-        <v>0.003636277298038114</v>
+        <v>-0.01428866200666941</v>
       </c>
       <c r="E86">
-        <v>0.05227198968433518</v>
+        <v>-0.1007547173347592</v>
       </c>
       <c r="F86">
-        <v>0.004305718580970616</v>
+        <v>-0.04805243288648725</v>
       </c>
       <c r="G86">
-        <v>-0.08318420539818887</v>
+        <v>-0.4399203531464791</v>
       </c>
       <c r="H86">
-        <v>-0.1278697377431342</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.4106681855379237</v>
+      </c>
+      <c r="I86">
+        <v>-0.1444272065390899</v>
+      </c>
+      <c r="J86">
+        <v>0.3774559308234319</v>
+      </c>
+      <c r="K86">
+        <v>-0.4341978558526727</v>
+      </c>
+      <c r="L86">
+        <v>0.179719286887104</v>
+      </c>
+      <c r="M86">
+        <v>0.01955857925509672</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.08649105468842096</v>
+        <v>-0.1134612750165391</v>
       </c>
       <c r="C87">
-        <v>0.05608514522585947</v>
+        <v>-0.06644730727845037</v>
       </c>
       <c r="D87">
-        <v>-0.02157955959758013</v>
+        <v>-0.03258224249321082</v>
       </c>
       <c r="E87">
-        <v>0.1507477693588044</v>
+        <v>-0.04065033709845864</v>
       </c>
       <c r="F87">
-        <v>0.1055871550829873</v>
+        <v>-0.1477640074633356</v>
       </c>
       <c r="G87">
-        <v>-0.1254555388337898</v>
+        <v>-0.08291654944244732</v>
       </c>
       <c r="H87">
-        <v>0.05845552929374558</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.1699143677438476</v>
+      </c>
+      <c r="I87">
+        <v>-0.03121792867256937</v>
+      </c>
+      <c r="J87">
+        <v>0.07829745707547463</v>
+      </c>
+      <c r="K87">
+        <v>-0.05464787550509285</v>
+      </c>
+      <c r="L87">
+        <v>-0.131039524949372</v>
+      </c>
+      <c r="M87">
+        <v>0.01262225081116122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.04940078115708175</v>
+        <v>-0.05708827731254792</v>
       </c>
       <c r="C88">
-        <v>0.03732426867368899</v>
+        <v>-0.05324501244094697</v>
       </c>
       <c r="D88">
-        <v>-0.02488963827759027</v>
+        <v>0.0271584019749051</v>
       </c>
       <c r="E88">
-        <v>0.007632862648932964</v>
+        <v>-0.01350287884657817</v>
       </c>
       <c r="F88">
-        <v>0.005474214027684728</v>
+        <v>-0.02772974694771886</v>
       </c>
       <c r="G88">
-        <v>-0.02103079439271003</v>
+        <v>0.03215810840004856</v>
       </c>
       <c r="H88">
-        <v>0.02275728187114319</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.01840000814629162</v>
+      </c>
+      <c r="I88">
+        <v>-0.04507424770522298</v>
+      </c>
+      <c r="J88">
+        <v>-0.0142267376476585</v>
+      </c>
+      <c r="K88">
+        <v>0.01382071331230268</v>
+      </c>
+      <c r="L88">
+        <v>-0.01639848456370588</v>
+      </c>
+      <c r="M88">
+        <v>0.02077679466047634</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.1788197743155718</v>
+        <v>-0.2152477517514693</v>
       </c>
       <c r="C89">
-        <v>-0.320445018076805</v>
+        <v>0.3581183165751013</v>
       </c>
       <c r="D89">
-        <v>-0.05469035641231749</v>
+        <v>-0.04349587437888482</v>
       </c>
       <c r="E89">
-        <v>0.0807433981375513</v>
+        <v>-0.08173354225736036</v>
       </c>
       <c r="F89">
-        <v>-0.05117609129454558</v>
+        <v>-0.01081798459979618</v>
       </c>
       <c r="G89">
-        <v>-0.01355317804697596</v>
+        <v>0.0004447801903355745</v>
       </c>
       <c r="H89">
-        <v>-0.008748347469695703</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.03009327488155288</v>
+      </c>
+      <c r="I89">
+        <v>-0.03586153582723919</v>
+      </c>
+      <c r="J89">
+        <v>0.0009671482501513906</v>
+      </c>
+      <c r="K89">
+        <v>0.07227854638482764</v>
+      </c>
+      <c r="L89">
+        <v>-0.01133279865322473</v>
+      </c>
+      <c r="M89">
+        <v>0.1143424692112862</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.1274326016792567</v>
+        <v>-0.1480431425379325</v>
       </c>
       <c r="C90">
-        <v>-0.2811520441299044</v>
+        <v>0.270827480528612</v>
       </c>
       <c r="D90">
-        <v>0.009542435447288508</v>
+        <v>0.01204931561025297</v>
       </c>
       <c r="E90">
-        <v>0.0465249890325558</v>
+        <v>-0.02205928213974693</v>
       </c>
       <c r="F90">
-        <v>-0.0006002657317105787</v>
+        <v>-0.03133057587552237</v>
       </c>
       <c r="G90">
-        <v>-0.05665786705014093</v>
+        <v>0.0008798633155357957</v>
       </c>
       <c r="H90">
-        <v>0.04163903547495569</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.02289071472228359</v>
+      </c>
+      <c r="I90">
+        <v>-0.05590492785284439</v>
+      </c>
+      <c r="J90">
+        <v>-0.01277040277537803</v>
+      </c>
+      <c r="K90">
+        <v>0.03012239826461415</v>
+      </c>
+      <c r="L90">
+        <v>0.007844615143026394</v>
+      </c>
+      <c r="M90">
+        <v>-0.0577028239883451</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.08295338794956704</v>
+        <v>-0.07953079294795508</v>
       </c>
       <c r="C91">
-        <v>0.02422784078562821</v>
+        <v>-0.05212004955358616</v>
       </c>
       <c r="D91">
-        <v>-0.008729508650219443</v>
+        <v>-0.009627269341620764</v>
       </c>
       <c r="E91">
-        <v>0.01807639563813487</v>
+        <v>-0.007086771304195287</v>
       </c>
       <c r="F91">
-        <v>0.0373694961990413</v>
+        <v>0.01547596588820706</v>
       </c>
       <c r="G91">
-        <v>0.1051048692530382</v>
+        <v>0.07939139357248924</v>
       </c>
       <c r="H91">
-        <v>-0.01429826935280216</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.0303539573282554</v>
+      </c>
+      <c r="I91">
+        <v>0.04770617104692283</v>
+      </c>
+      <c r="J91">
+        <v>0.03114534263408884</v>
+      </c>
+      <c r="K91">
+        <v>-0.01659749245580367</v>
+      </c>
+      <c r="L91">
+        <v>0.02736577868247299</v>
+      </c>
+      <c r="M91">
+        <v>-0.01091696145359566</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.1512609630517293</v>
+        <v>-0.1627618507093793</v>
       </c>
       <c r="C92">
-        <v>-0.3017944418311873</v>
+        <v>0.3039329656649345</v>
       </c>
       <c r="D92">
-        <v>-0.03043095844616868</v>
+        <v>-0.02976867573844539</v>
       </c>
       <c r="E92">
-        <v>0.01716012633155084</v>
+        <v>-0.04560115675683805</v>
       </c>
       <c r="F92">
-        <v>-0.0776635067845227</v>
+        <v>-0.02259930231226881</v>
       </c>
       <c r="G92">
-        <v>0.03080376157782652</v>
+        <v>0.03169633444832706</v>
       </c>
       <c r="H92">
-        <v>-0.002896773680992368</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.01913296151993921</v>
+      </c>
+      <c r="I92">
+        <v>-0.005694298217373483</v>
+      </c>
+      <c r="J92">
+        <v>-0.01194597625086552</v>
+      </c>
+      <c r="K92">
+        <v>0.04206778803455186</v>
+      </c>
+      <c r="L92">
+        <v>-0.001903647641753355</v>
+      </c>
+      <c r="M92">
+        <v>0.07568114885253573</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1460254766122789</v>
+        <v>-0.1633043135415095</v>
       </c>
       <c r="C93">
-        <v>-0.2504555985465386</v>
+        <v>0.2862978743888083</v>
       </c>
       <c r="D93">
-        <v>-0.01105203541582489</v>
+        <v>0.02954025421872836</v>
       </c>
       <c r="E93">
-        <v>0.0186477063552896</v>
+        <v>-0.00923530024654581</v>
       </c>
       <c r="F93">
-        <v>-0.03065245053528731</v>
+        <v>-0.01341618498264466</v>
       </c>
       <c r="G93">
-        <v>-0.02542147947849217</v>
+        <v>-0.01090607752095129</v>
       </c>
       <c r="H93">
-        <v>0.01455655193481878</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.01822576521844466</v>
+      </c>
+      <c r="I93">
+        <v>-0.03356333990562525</v>
+      </c>
+      <c r="J93">
+        <v>-0.01588449472120195</v>
+      </c>
+      <c r="K93">
+        <v>-0.02056698537379138</v>
+      </c>
+      <c r="L93">
+        <v>-0.01874863779969143</v>
+      </c>
+      <c r="M93">
+        <v>-0.03933111551712808</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.08554928603616099</v>
+        <v>-0.1087443559174177</v>
       </c>
       <c r="C94">
-        <v>0.06366074047859381</v>
+        <v>-0.0747133751611553</v>
       </c>
       <c r="D94">
-        <v>-0.00704411297185382</v>
+        <v>-0.02018050982350197</v>
       </c>
       <c r="E94">
-        <v>-0.003449234313633521</v>
+        <v>-0.01300880441747763</v>
       </c>
       <c r="F94">
-        <v>0.06266925237960574</v>
+        <v>0.03987791968892977</v>
       </c>
       <c r="G94">
-        <v>0.1609852034510528</v>
+        <v>0.114925202009913</v>
       </c>
       <c r="H94">
-        <v>-0.04646077319950848</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.04945978758411729</v>
+      </c>
+      <c r="I94">
+        <v>0.05647668441289273</v>
+      </c>
+      <c r="J94">
+        <v>-0.007802560731546213</v>
+      </c>
+      <c r="K94">
+        <v>-0.0229000276285473</v>
+      </c>
+      <c r="L94">
+        <v>0.05470313177587477</v>
+      </c>
+      <c r="M94">
+        <v>0.01942825588213795</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.09514168679296757</v>
+        <v>-0.1293976878573421</v>
       </c>
       <c r="C95">
-        <v>0.07698116179587856</v>
+        <v>-0.07018022892184107</v>
       </c>
       <c r="D95">
-        <v>-0.06595122682708157</v>
+        <v>-0.02145162777702221</v>
       </c>
       <c r="E95">
-        <v>0.02216769552635823</v>
+        <v>-0.06069494118221642</v>
       </c>
       <c r="F95">
-        <v>-0.05808297977463916</v>
+        <v>-0.07546700193636045</v>
       </c>
       <c r="G95">
-        <v>-0.005969871832587153</v>
+        <v>-0.1988851020927328</v>
       </c>
       <c r="H95">
-        <v>-0.0190537994247561</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.05350295139262677</v>
+      </c>
+      <c r="I95">
+        <v>-0.190569800924853</v>
+      </c>
+      <c r="J95">
+        <v>-0.07599180340011003</v>
+      </c>
+      <c r="K95">
+        <v>-0.08109107367379258</v>
+      </c>
+      <c r="L95">
+        <v>0.003201311433544955</v>
+      </c>
+      <c r="M95">
+        <v>0.4511230893948192</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3199,88 +4639,148 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.2629546818406306</v>
+        <v>-0.161925466488623</v>
       </c>
       <c r="C97">
-        <v>0.07915122424121535</v>
+        <v>0.0008274302675606121</v>
       </c>
       <c r="D97">
-        <v>0.8696920732886028</v>
+        <v>-0.09961754856018581</v>
       </c>
       <c r="E97">
-        <v>-0.1521344412168349</v>
+        <v>0.9304849386288044</v>
       </c>
       <c r="F97">
-        <v>-0.04832444985047435</v>
+        <v>-0.04293359955313839</v>
       </c>
       <c r="G97">
-        <v>-0.1389050199186237</v>
+        <v>-0.1173903469974543</v>
       </c>
       <c r="H97">
-        <v>-0.006381646093815305</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.02307479357675903</v>
+      </c>
+      <c r="I97">
+        <v>-0.03889287201429054</v>
+      </c>
+      <c r="J97">
+        <v>0.06352760849466005</v>
+      </c>
+      <c r="K97">
+        <v>0.04672580703035034</v>
+      </c>
+      <c r="L97">
+        <v>0.006757033283615098</v>
+      </c>
+      <c r="M97">
+        <v>0.0496555825959572</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.2781157183419591</v>
+        <v>-0.2666070099700631</v>
       </c>
       <c r="C98">
-        <v>0.1147978557149605</v>
+        <v>-0.1132343307000694</v>
       </c>
       <c r="D98">
-        <v>-0.1904979139222216</v>
+        <v>0.002030648053994923</v>
       </c>
       <c r="E98">
-        <v>-0.3125738570150255</v>
+        <v>-0.02072133306474078</v>
       </c>
       <c r="F98">
-        <v>-0.4449990090780609</v>
+        <v>0.4225849812952279</v>
       </c>
       <c r="G98">
-        <v>-0.2368199893263734</v>
+        <v>-0.2342349275206237</v>
       </c>
       <c r="H98">
-        <v>0.3235592987169906</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.130955941425828</v>
+      </c>
+      <c r="I98">
+        <v>0.2438748061760744</v>
+      </c>
+      <c r="J98">
+        <v>0.00261851673684665</v>
+      </c>
+      <c r="K98">
+        <v>0.02795331339418043</v>
+      </c>
+      <c r="L98">
+        <v>-0.6252474335515936</v>
+      </c>
+      <c r="M98">
+        <v>0.07514973697186607</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.05105085316427106</v>
+        <v>-0.06616497121371188</v>
       </c>
       <c r="C99">
-        <v>0.05724474239034558</v>
+        <v>-0.05920065257647429</v>
       </c>
       <c r="D99">
-        <v>-0.0630866704953446</v>
+        <v>-0.009198102193914308</v>
       </c>
       <c r="E99">
-        <v>0.01007104262021081</v>
+        <v>-0.04854249458101151</v>
       </c>
       <c r="F99">
-        <v>0.003867156137605084</v>
+        <v>-0.002105099405649527</v>
       </c>
       <c r="G99">
-        <v>-0.04559208845457861</v>
+        <v>0.01051340985334335</v>
       </c>
       <c r="H99">
-        <v>0.08231933994438516</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.01660250345662278</v>
+      </c>
+      <c r="I99">
+        <v>0.03568746093980603</v>
+      </c>
+      <c r="J99">
+        <v>0.06309309801335847</v>
+      </c>
+      <c r="K99">
+        <v>0.01365346128624352</v>
+      </c>
+      <c r="L99">
+        <v>-0.008920545975017329</v>
+      </c>
+      <c r="M99">
+        <v>0.122652629310391</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3303,36 +4803,66 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.05178053822735371</v>
+        <v>-0.04444246735609277</v>
       </c>
       <c r="C101">
-        <v>0.01970265954966732</v>
+        <v>-0.02830431924309997</v>
       </c>
       <c r="D101">
-        <v>-0.0095601920565422</v>
+        <v>0.003895380676766045</v>
       </c>
       <c r="E101">
-        <v>0.01916980983927746</v>
+        <v>-0.02008378568445389</v>
       </c>
       <c r="F101">
-        <v>-0.00667415117594247</v>
+        <v>-0.05843833759363366</v>
       </c>
       <c r="G101">
-        <v>0.003189084729745593</v>
+        <v>0.0337528823530278</v>
       </c>
       <c r="H101">
-        <v>-0.02568010181835487</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.04889756881456286</v>
+      </c>
+      <c r="I101">
+        <v>-0.0001970819340574555</v>
+      </c>
+      <c r="J101">
+        <v>-0.03343859776489014</v>
+      </c>
+      <c r="K101">
+        <v>-0.03766394372978731</v>
+      </c>
+      <c r="L101">
+        <v>-0.03713356113067323</v>
+      </c>
+      <c r="M101">
+        <v>-0.02107679546722607</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
